--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -451,519 +451,697 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>630009</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>华商稳定增利债券A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>20.06</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>630109</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>华商稳定增利债券C</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>20.06</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.00</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000549</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安大国新经济股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002924</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商瑞鑫定期开放债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>161628</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>168701</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>93.68</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>168702</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>001028</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华安物联网主题股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002161</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>银华万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005273</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华商可转债债券A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>004693</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007042</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008518</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>002924</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华商瑞鑫定期开放债券</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -973,7 +1151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,15 +1172,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1014,26 +1202,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004693</t>
+          <t>010761</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
+          <t>华商甄选回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>55.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>74.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6580</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1042,26 +1240,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007042</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
+          <t>易方达中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.55</t>
+          <t>35.89</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8865</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1070,26 +1278,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>166301</t>
+          <t>159998</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华商新趋势优选灵活配置混合</t>
+          <t>天弘中证计算机主题ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>7</v>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4412</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005933</t>
+          <t>166301</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
+          <t>华商新趋势优选灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>10.73</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3144</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005934</t>
+          <t>515070</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
+          <t>华夏中证人工智能主题ETF</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87.30</t>
+          <t>12.15</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>165523</t>
+          <t>004693</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>信诚中证信息安全指数（LOF）</t>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.32</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>9</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>000549</t>
+          <t>515980</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安大国新经济股票</t>
+          <t>华富中证人工智能产业ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.92</t>
+          <t>5.54</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1850</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -1210,25 +1468,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010403</t>
+          <t>515400</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华商景气优选混合</t>
+          <t>富国中证大数据产业ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>87.77</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1248,15 +1516,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.38</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.24</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1266,25 +1544,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010761</t>
+          <t>010403</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华商甄选回报混合</t>
+          <t>华商景气优选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>74.57</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1366</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>515070</t>
+          <t>165523</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏中证人工智能主题ETF</t>
+          <t>信诚中证信息安全指数（LOF）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>99.09</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.46</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>515400</t>
+          <t>005933</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>富国中证大数据产业ETF</t>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>98.90</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>515980</t>
+          <t>000549</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>华富中证人工智能产业ETF</t>
+          <t>华安大国新经济股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.47</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1378,26 +1696,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>002289</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF</t>
+          <t>华商改革创新股票</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>98.86</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2.47</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="16">
@@ -1406,26 +1734,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159998</t>
+          <t>168701</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>天弘中证计算机主题ETF</t>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>99.73</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1434,26 +1772,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>002289</t>
+          <t>161628</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华商改革创新股票</t>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>87.00</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1462,26 +1810,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>002303</t>
+          <t>970015</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>金鹰智慧生活灵活配置混合</t>
+          <t>申万宏源红利成长灵活配置混合</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.22</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8.42</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>2</v>
+          <t>60.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="19">
@@ -1490,26 +1848,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>161628</t>
+          <t>002303</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
+          <t>金鹰智慧生活灵活配置混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>94.94</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.77</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1518,26 +1886,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>168701</t>
+          <t>005934</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>93.58</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>7</v>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -1556,15 +1934,25 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>93.58</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>2.97</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1574,26 +1962,30 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>970015</t>
+          <t>007042</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>申万宏源红利成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>60.19</t>
-        </is>
-      </c>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
+          <t>88.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1970,7 +1971,6 @@
           <t>新疆前海联合泳隽灵活配置混合C</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>88.55</t>
@@ -1986,6 +1986,1048 @@
       </c>
       <c r="H22" t="n">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9527</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6071</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3781</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.83</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1376</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1126</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>260115</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城中小盘混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002244</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城低碳科技主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004900</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004901</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>财通资管鑫锐回报混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>79.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3033,4 +3034,2034 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8226</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.80</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5692</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>51.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5414</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>20.86</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5194</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3743</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3708</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2159</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49.82</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1375</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1290</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1092</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0891</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>67.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0720</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0656</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>73.19</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.20</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>60.58</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004397</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长盛信息安全量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>26.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001880</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>49.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>96.59</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010000</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城中国智造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5064,4 +5065,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>26</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5073,7 +5074,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5084,17 +5085,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5104,14 +5125,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.4</v>
+          <t>040035</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>78.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -5120,14 +5163,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.29</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>77.49</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.2620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -5136,14 +5201,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.73</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>72.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.5341</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -5152,13 +5239,4101 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.6666</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4961</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>24.75</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.1286</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>75.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1215</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>27.57</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0228</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>27.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8623</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8434</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000652</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时裕隆灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7950</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7166</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7125</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6725</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6612</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>121002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国投瑞银景气行业混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>66.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5376</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>25.45</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5192</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4644</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4547</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159819</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4481</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4305</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010425</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4295</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012218</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3969</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>12.10</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>77.29</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3537</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3430</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>77.20</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2540</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>080012</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>长盛电子信息产业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2428</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2329</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2304</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.20</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.80</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515070</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华夏中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.06</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>013513</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长安先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161631</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>17.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1669</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1557</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1539</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1368</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011527</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1357</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>398041</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中海量化策略混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1210</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>65.00</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002780</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1101</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0836</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>007043</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>新疆前海联合泓鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.65</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000714</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>512930</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>平安中证人工智能主题ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0741</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011331</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002052</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>诺安稳健回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>36.14</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0561</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>519963</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>53.78</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013514</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长安先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>70.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>88.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010426</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国投瑞银开放视角精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>82.19</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>519962</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信利盈灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>25.33</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>013247</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>交银瑞卓三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>68.18</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>96.87</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012219</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>博时乐享混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>36.06</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>24.56</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009239</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通中证人工智能主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>95.98</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>71.14</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011332</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华远见成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>71.17</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011528</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时恒悦6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>20.54</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159702</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富中证人工智能主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006992</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>嘉合锦创优势精选混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>78.67</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>108</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>26</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>17</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -9232,7 +9233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9243,17 +9244,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -9263,14 +9284,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>108</v>
-      </c>
-      <c r="D2" t="n">
-        <v>34.01</v>
+          <t>001955</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧养老产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3570</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -9279,14 +9322,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.4</v>
+          <t>519002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安安信消费混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2725</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -9295,14 +9360,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>26</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.29</v>
+          <t>010429</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧睿见混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.61</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2557</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -9311,14 +9398,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>21</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4.73</v>
+          <t>001694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深外延增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0788</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -9327,13 +9436,3205 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010902</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.0483</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010723</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>28.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2240</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>004616</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0527</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0469</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0469</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.06</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.45</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9989</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>25.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.9061</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010678</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7478</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012463</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009210</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.7150</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6946</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010947</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6458</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5972</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005763</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧电子信息产业沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5597</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008966</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5029</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>25.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4407</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005421</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中欧嘉泽灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3513</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>10.81</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011708</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2701</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010903</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博时成长领航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>73.89</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2619</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>54.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010994</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>博时创新经济混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.93</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1360</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1131</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1027</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0964</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0960</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009211</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧嘉和三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.26</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0941</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0928</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>60.76</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0873</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>33.54</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0866</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0840</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0835</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0812</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011709</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>中欧嘉益一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.96</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010724</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>中欧价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010508</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时鑫康混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0654</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>60.02</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>160812</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长盛同益成长回报灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>81.36</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008967</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时成长优选两年封闭运作灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010679</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧均衡成长混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0374</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>70.39</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010948</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中欧嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>58.93</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012464</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时成长优势混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.80</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005027</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>光大保德信多策略优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>37.88</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010995</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>博时创新经济混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>002630</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002631</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>江信瑞福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>43.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010511</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>博时鑫康混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>68.97</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>29.37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>108</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>21</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>17</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12517,7 +12518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12528,17 +12529,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12548,14 +12569,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>29.37</v>
+          <t>040001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安创新混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9754</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -12564,14 +12607,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>108</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34.01</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>38.21</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8750</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -12580,14 +12645,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>52</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.4</v>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6885</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -12596,14 +12683,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>26</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.29</v>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6884</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -12612,14 +12721,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>21</v>
-      </c>
-      <c r="D6" t="n">
-        <v>4.73</v>
+          <t>010385</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5607</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -12628,13 +12759,2421 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010761</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商甄选回报混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4933</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519756</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德国企改革灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>65.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2435</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2415</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>37.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1545</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>510081</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛动态精选混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>61.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1492</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519768</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>13.73</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1066</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>165523</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010916</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银施罗德臻选回报混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>13.23</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>20.52</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010386</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安汇嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0888</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>002310</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>新华中证云计算50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0653</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>23.60</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0555</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>519769</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银优选回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22.33</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159613</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实中证信息安全主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>70.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002315</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>创金合信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>008488</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华商恒益稳健混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>58.02</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519771</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银优择回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002210</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014938</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>59.68</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013142</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>007381</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>013083</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>信诚中证信息安全指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>29.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014543</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>003865</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>创金合信量化多因子股票C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014328</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014544</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深云计算产业指数C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>007382</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>国融融信消费严选混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>84.32</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014327</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>格林新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>64.20</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>014939</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>同泰产业升级混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>56.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>65</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>29.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>108</v>
+      </c>
+      <c r="D4" t="n">
+        <v>34.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>52</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>21</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>17</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.4</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D2" t="n">
-        <v>7.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D3" t="n">
-        <v>29.37</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>34.01</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
-        <v>7.4</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>5.29</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D7" t="n">
-        <v>4.73</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>17</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.4</v>
       </c>
     </row>
@@ -600,6 +617,1460 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5552</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5336</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.63</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0713</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012321</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.03</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012322</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>东财中证云计算指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>29.28</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016291</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016292</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3121,7 +4592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6405,7 +7876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10563,7 +12034,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12593,7 +14064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13635,7 +15106,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14482,7 +15953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
+++ b/数据整理/stocks/A股/深证主板/000977-浪潮信息.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>3.6</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D3" t="n">
-        <v>7.61</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="D4" t="n">
-        <v>29.37</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
-        <v>34.01</v>
+        <v>29.37</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="D6" t="n">
-        <v>7.4</v>
+        <v>34.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D7" t="n">
-        <v>5.29</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D8" t="n">
-        <v>4.73</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,730 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>21</v>
+      </c>
+      <c r="D9" t="n">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>17</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515980</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华富中证人工智能产业ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2872</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>630009</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1724</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002161</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华万物互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008518</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>弘毅远方经济新动力混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>630109</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商稳定增利债券C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.06</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>28.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002924</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华商瑞鑫定期开放债券</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1334,1046 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009312</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004693</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6025</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515400</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1701</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009313</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新疆前海联合价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001028</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0778</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>560660</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华中证云计算50ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>970015</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>申万宏源红利成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>97.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0197</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>516000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000549</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>168701</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>516700</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华宝中证大数据产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013132</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>013133</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信文娱媒体股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>168702</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>合煦智远国证香蜜湖金融科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007042</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新疆前海联合泳隽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>016291</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安大国新经济股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>016292</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安物联网主题股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2070,7 +3827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4592,7 +6349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7876,7 +9633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12034,7 +13791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14064,7 +15821,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15106,7 +16863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15951,704 +17708,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515980</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华富中证人工智能产业ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.05</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.29</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.96</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3001</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001028</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安物联网主题股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.11</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.58</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2872</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>004693</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1880</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>630009</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>17.24</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1724</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002161</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>银华万物互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>21.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0950</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008518</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>弘毅远方经济新动力混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.50</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0673</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005933</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0619</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>630109</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>华商稳定增利债券C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>6.03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>20.06</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0603</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>000549</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华安大国新经济股票</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.70</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0598</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>168701</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.27</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0338</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>005284</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华商可转债债券C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>005273</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华商可转债债券A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>28.83</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.08</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0194</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>161628</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>融通中证云计算与大数据主题指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.38</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0162</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002924</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华商瑞鑫定期开放债券</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>20.07</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.01</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005934</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>新疆前海联合先进制造灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.09</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>80.27</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0042</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>168702</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>合煦智远国证香蜜湖金融科技指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>007042</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>新疆前海联合泳隽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>79.21</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>